--- a/output/selfemployed_tosearch.xlsx
+++ b/output/selfemployed_tosearch.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nancy Potok</t>
+          <t>Sarah Donilon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -469,34 +469,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Nancy PotokSelf-employedDepartment of Commerce</t>
+          <t>Sarah DonilonSelf-employedDepartment of Commerce</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Nancy PotokSelf-employed</t>
+          <t>Sarah DonilonSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Department of Defense</t>
+          <t>Department of Commerce</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karen Gibson</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Nancy Potok</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -516,12 +511,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Karen GibsonSelf-employedDepartment of Defense</t>
+          <t>Nancy PotokSelf-employedDepartment of Commerce</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Karen GibsonSelf-employed</t>
+          <t>Nancy PotokSelf-employed</t>
         </is>
       </c>
     </row>
@@ -533,7 +528,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vivek Murthy</t>
+          <t>Karen Gibson</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -558,24 +553,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Vivek MurthySelf-employedDepartment of Defense</t>
+          <t>Karen GibsonSelf-employedDepartment of Defense</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Vivek MurthySelf-employed</t>
+          <t>Karen GibsonSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Department of Education</t>
+          <t>Department of Defense</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ruthanne Buck</t>
+          <t>Vivek Murthy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -595,24 +595,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ruthanne BuckSelf-employedDepartment of Education</t>
+          <t>Vivek MurthySelf-employedDepartment of Defense</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Ruthanne BuckSelf-employed</t>
+          <t>Vivek MurthySelf-employed</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Department of Energy</t>
+          <t>Department of Education</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kerry Duggan</t>
+          <t>Ruthanne Buck</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Kerry DugganSelf-employedDepartment of Energy</t>
+          <t>Ruthanne BuckSelf-employedDepartment of Education</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Kerry DugganSelf-employed</t>
+          <t>Ruthanne BuckSelf-employed</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kathleen Hogan</t>
+          <t>Kerry Duggan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -669,24 +669,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Kathleen HoganSelf-employedDepartment of Energy</t>
+          <t>Kerry DugganSelf-employedDepartment of Energy</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Kathleen HoganSelf-employed</t>
+          <t>Kerry DugganSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Department of Health and Human Services</t>
+          <t>Department of Energy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henry Claypool</t>
+          <t>Kathleen Hogan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Henry ClaypoolSelf-employedDepartment of Health and Human Services</t>
+          <t>Kathleen HoganSelf-employedDepartment of Energy</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Henry ClaypoolSelf-employed</t>
+          <t>Kathleen HoganSelf-employed</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Geoff Roth</t>
+          <t>Henry Claypool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -743,24 +743,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Geoff RothSelf-employedDepartment of Health and Human Services</t>
+          <t>Henry ClaypoolSelf-employedDepartment of Health and Human Services</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Geoff RothSelf-employed</t>
+          <t>Henry ClaypoolSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Department of Homeland Security</t>
+          <t>Department of Health and Human Services</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amanda Baran</t>
+          <t>Geoff Roth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Amanda BaranSelf-employedDepartment of Homeland Security</t>
+          <t>Geoff RothSelf-employedDepartment of Health and Human Services</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Amanda BaranSelf-employed</t>
+          <t>Geoff RothSelf-employed</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Peter Neffenger</t>
+          <t>Amanda Baran</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Peter NeffengerSelf-employedDepartment of Homeland Security</t>
+          <t>Amanda BaranSelf-employedDepartment of Homeland Security</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Peter NeffengerSelf-employed</t>
+          <t>Amanda BaranSelf-employed</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Esther Olavarria</t>
+          <t>Peter Neffenger</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -854,24 +854,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Esther OlavarriaSelf-employedDepartment of Homeland Security</t>
+          <t>Peter NeffengerSelf-employedDepartment of Homeland Security</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Esther OlavarriaSelf-employed</t>
+          <t>Peter NeffengerSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development</t>
+          <t>Department of Homeland Security</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Antonio Riley</t>
+          <t>Esther Olavarria</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -891,24 +891,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Antonio RileySelf-employedDepartment of Housing and Urban Development</t>
+          <t>Esther OlavarriaSelf-employedDepartment of Homeland Security</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Antonio RileySelf-employed</t>
+          <t>Esther OlavarriaSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Department of Labor</t>
+          <t>Department of Housing and Urban Development</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Deborah Greenfield</t>
+          <t>Antonio Riley</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Deborah GreenfieldSelf-employedDepartment of Labor</t>
+          <t>Antonio RileySelf-employedDepartment of Housing and Urban Development</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Deborah GreenfieldSelf-employed</t>
+          <t>Antonio RileySelf-employed</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Seth Harris</t>
+          <t>Deborah Greenfield</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Seth HarrisSelf-employedDepartment of Labor</t>
+          <t>Deborah GreenfieldSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Seth HarrisSelf-employed</t>
+          <t>Deborah GreenfieldSelf-employed</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seema Nanda</t>
+          <t>Seth Harris</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Seema NandaSelf-employedDepartment of Labor</t>
+          <t>Seth HarrisSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Seema NandaSelf-employed</t>
+          <t>Seth HarrisSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Raj Nayak</t>
+          <t>Seema Nanda</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Raj NayakSelf-employedDepartment of Labor</t>
+          <t>Seema NandaSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Raj NayakSelf-employed</t>
+          <t>Seema NandaSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lynn Rhinehart</t>
+          <t>Raj Nayak</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Lynn RhinehartSelf-employedDepartment of Labor</t>
+          <t>Raj NayakSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lynn RhinehartSelf-employed</t>
+          <t>Raj NayakSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ann Rosenthal</t>
+          <t>Lynn Rhinehart</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1113,24 +1113,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ann RosenthalSelf-employedDepartment of Labor</t>
+          <t>Lynn RhinehartSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ann RosenthalSelf-employed</t>
+          <t>Lynn RhinehartSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Department of State</t>
+          <t>Department of Labor</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Frances Colon</t>
+          <t>Ann Rosenthal</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Frances ColonSelf-employedDepartment of State</t>
+          <t>Ann RosenthalSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Frances ColonSelf-employed</t>
+          <t>Ann RosenthalSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael Guest</t>
+          <t>Frances Colon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Michael GuestSelf-employedDepartment of State</t>
+          <t>Frances ColonSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Michael GuestSelf-employed</t>
+          <t>Frances ColonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Peter Harrell</t>
+          <t>Michael Guest</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Peter HarrellSelf-employedDepartment of State</t>
+          <t>Michael GuestSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Peter HarrellSelf-employed</t>
+          <t>Michael GuestSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fouad Saad</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Peter Harrell</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1266,12 +1261,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employedDepartment of State</t>
+          <t>Peter HarrellSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employed</t>
+          <t>Peter HarrellSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1278,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gentry Smith</t>
+          <t>Fouad Saad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employedDepartment of State</t>
+          <t>Fouad SaadSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employed</t>
+          <t>Fouad SaadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Puneet Talwar</t>
+          <t>Gentry Smith</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1340,24 +1340,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employedDepartment of State</t>
+          <t>Gentry SmithSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employed</t>
+          <t>Gentry SmithSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Department of State</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maryanne Donaghy</t>
+          <t>Puneet Talwar</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1377,24 +1377,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
+          <t>Puneet TalwarSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employed</t>
+          <t>Puneet TalwarSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael McCabe</t>
+          <t>Chris Diaz</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1414,24 +1414,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
+          <t>Chris DiazSelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employed</t>
+          <t>Chris DiazSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Luseni Pieh</t>
+          <t>Maryanne Donaghy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1451,24 +1451,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
+          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employed</t>
+          <t>Maryanne DonaghySelf-employed</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Executive Office of the President, Management and Administration</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Christian Peele</t>
+          <t>Michael McCabe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1483,29 +1483,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
+          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employed</t>
+          <t>Michael McCabeSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mignon Clyburn</t>
+          <t>Luseni Pieh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1525,24 +1525,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
+          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employed</t>
+          <t>Luseni PiehSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Executive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Paul de Sa</t>
+          <t>Christian Peele</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1557,34 +1557,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employedFederal Communications Commission</t>
+          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employed</t>
+          <t>Christian PeeleSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Mignon Clyburn</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1604,24 +1599,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
+          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
+          <t>Mignon ClyburnSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Harry Coker</t>
+          <t>Paul de Sa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1641,12 +1636,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employedIntelligence Community</t>
+          <t>Paul de SaSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employed</t>
+          <t>Paul de SaSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1653,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dawn Eilenberger</t>
+          <t>Stephanie O’Sullivan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employed</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Harry Coker</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employedIntelligence Community</t>
+          <t>Harry CokerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employed</t>
+          <t>Harry CokerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ron Moultrie</t>
+          <t>Dawn Eilenberger</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employedIntelligence Community</t>
+          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employed</t>
+          <t>Dawn EilenbergerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shaun Murphy</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employedIntelligence Community</t>
+          <t>Justin JacksonSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employed</t>
+          <t>Justin JacksonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bruce Pease</t>
+          <t>Ron Moultrie</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1826,24 +1826,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employedIntelligence Community</t>
+          <t>Ron MoultrieSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employed</t>
+          <t>Ron MoultrieSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pam Melroy</t>
+          <t>Shaun Murphy</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1863,24 +1863,24 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
+          <t>Shaun MurphySelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employed</t>
+          <t>Shaun MurphySelf-employed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Brian McKeon</t>
+          <t>Bruce Pease</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1895,34 +1895,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employedNational Security Council</t>
+          <t>Bruce PeaseSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employed</t>
+          <t>Bruce PeaseSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pav Singh</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Pam Melroy</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1942,12 +1937,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Pav SinghSelf-employedNational Security Council</t>
+          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Pav SinghSelf-employed</t>
+          <t>Pam MelroySelf-employed</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1954,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nicole Wong</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Brian McKeon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1979,32 +1969,32 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Nicole WongSelf-employedNational Security Council</t>
+          <t>Brian McKeonSelf-employedNational Security Council</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Nicole WongSelf-employed</t>
+          <t>Brian McKeonSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jason Miller</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>Pav Singh</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2026,27 +2016,27 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Jason Miller, Team LeadSelf-employedOffice of the United States Trade Representative</t>
+          <t>Pav SinghSelf-employedNational Security Council</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jason Miller, Team LeadSelf-employed</t>
+          <t>Pav SinghSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carolyn Colvin</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Nicole Wong</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2068,24 +2058,24 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Carolyn Colvin, Team LeadSelf-employedSocial Security Administration</t>
+          <t>Nicole WongSelf-employedNational Security Council</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Carolyn Colvin, Team LeadSelf-employed</t>
+          <t>Nicole WongSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richard Stengel</t>
+          <t>Jason Miller</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2110,24 +2100,29 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Richard Stengel, Team LeadSelf-employedUnited States Agency for Global Media</t>
+          <t>Jason Miller, Team LeadSelf-employedOffice of the United States Trade Representative</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Richard Stengel, Team LeadSelf-employed</t>
+          <t>Jason Miller, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bruce Sherman</t>
+          <t>Carolyn Colvin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2147,12 +2142,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bruce ShermanSelf-employedUnited States Agency for Global Media</t>
+          <t>Carolyn Colvin, Team LeadSelf-employedSocial Security Administration</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bruce ShermanSelf-employed</t>
+          <t>Carolyn Colvin, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2159,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dana Shell Smith</t>
+          <t>Richard Stengel</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2184,24 +2184,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Dana Shell SmithSelf-employedUnited States Agency for Global Media</t>
+          <t>Richard Stengel, Team LeadSelf-employedUnited States Agency for Global Media</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Dana Shell SmithSelf-employed</t>
+          <t>Richard Stengel, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Audrey Rowe</t>
+          <t>Bruce Sherman</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2221,47 +2221,121 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Audrey RoweSelf-employedUnited States Department of Agriculture</t>
+          <t>Bruce ShermanSelf-employedUnited States Agency for Global Media</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Audrey RoweSelf-employed</t>
+          <t>Bruce ShermanSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>United States Agency for Global Media</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dana Shell Smith</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Dana Shell SmithSelf-employedUnited States Agency for Global Media</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Dana Shell SmithSelf-employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>United States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Audrey Rowe</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Audrey RoweSelf-employedUnited States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Audrey RoweSelf-employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>United States Mission to the United Nations</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Jen Simon</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Self-employed</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>SELF-EMPLOYED</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Jen SimonSelf-employedUnited States Mission to the United Nations</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Jen SimonSelf-employed</t>
         </is>

--- a/output/selfemployed_tosearch.xlsx
+++ b/output/selfemployed_tosearch.xlsx
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fouad Saad</t>
+          <t>Brian McKeon</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1298,17 +1298,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employedDepartment of State</t>
+          <t>Brian McKeonSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employed</t>
+          <t>Brian McKeonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gentry Smith</t>
+          <t>Fouad Saad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1340,12 +1345,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employedDepartment of State</t>
+          <t>Fouad SaadSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employed</t>
+          <t>Fouad SaadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1362,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Puneet Talwar</t>
+          <t>Gentry Smith</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1377,24 +1382,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employedDepartment of State</t>
+          <t>Gentry SmithSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employed</t>
+          <t>Gentry SmithSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Department of State</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chris Diaz</t>
+          <t>Puneet Talwar</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1414,12 +1419,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Chris DiazSelf-employedDepartment of Veterans Affairs</t>
+          <t>Puneet TalwarSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Chris DiazSelf-employed</t>
+          <t>Puneet TalwarSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1436,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maryanne Donaghy</t>
+          <t>Chris Diaz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1451,24 +1456,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
+          <t>Chris DiazSelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employed</t>
+          <t>Chris DiazSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael McCabe</t>
+          <t>Maryanne Donaghy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1488,12 +1493,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
+          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employed</t>
+          <t>Maryanne DonaghySelf-employed</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1510,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Luseni Pieh</t>
+          <t>Michael McCabe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1525,24 +1530,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
+          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employed</t>
+          <t>Michael McCabeSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Executive Office of the President, Management and Administration</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Christian Peele</t>
+          <t>Luseni Pieh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1557,29 +1562,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
+          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employed</t>
+          <t>Luseni PiehSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Executive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mignon Clyburn</t>
+          <t>Christian Peele</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1594,17 +1599,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
+          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employed</t>
+          <t>Christian PeeleSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paul de Sa</t>
+          <t>Mignon Clyburn</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1636,29 +1641,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employedFederal Communications Commission</t>
+          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employed</t>
+          <t>Mignon ClyburnSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Paul de Sa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
+          <t>Paul de SaSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
+          <t>Paul de SaSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Harry Coker</t>
+          <t>Stephanie O’Sullivan</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1715,12 +1720,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employedIntelligence Community</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employed</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1737,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dawn Eilenberger</t>
+          <t>Harry Coker</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1752,12 +1757,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
+          <t>Harry CokerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employed</t>
+          <t>Harry CokerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1774,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Dawn Eilenberger</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1789,12 +1794,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employedIntelligence Community</t>
+          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employed</t>
+          <t>Dawn EilenbergerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1811,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ron Moultrie</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1826,12 +1831,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employedIntelligence Community</t>
+          <t>Justin JacksonSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employed</t>
+          <t>Justin JacksonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shaun Murphy</t>
+          <t>Ron Moultrie</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1863,12 +1868,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employedIntelligence Community</t>
+          <t>Ron MoultrieSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employed</t>
+          <t>Ron MoultrieSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1885,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bruce Pease</t>
+          <t>Shaun Murphy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1900,24 +1905,24 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employedIntelligence Community</t>
+          <t>Shaun MurphySelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employed</t>
+          <t>Shaun MurphySelf-employed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pam Melroy</t>
+          <t>Bruce Pease</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1937,24 +1942,24 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
+          <t>Bruce PeaseSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employed</t>
+          <t>Bruce PeaseSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brian McKeon</t>
+          <t>Pam Melroy</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1969,17 +1974,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employedNational Security Council</t>
+          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employed</t>
+          <t>Pam MelroySelf-employed</t>
         </is>
       </c>
     </row>

--- a/output/selfemployed_tosearch.xlsx
+++ b/output/selfemployed_tosearch.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,12 +940,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Department of Labor</t>
+          <t>Department of Justice</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deborah Greenfield</t>
+          <t>Shomari Figures</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -960,17 +960,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Deborah GreenfieldSelf-employedDepartment of Labor</t>
+          <t>Shomari FiguresSelf-employedDepartment of Justice</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Deborah GreenfieldSelf-employed</t>
+          <t>Shomari FiguresSelf-employed</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seth Harris</t>
+          <t>Deborah Greenfield</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Seth HarrisSelf-employedDepartment of Labor</t>
+          <t>Deborah GreenfieldSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Seth HarrisSelf-employed</t>
+          <t>Deborah GreenfieldSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Seema Nanda</t>
+          <t>Seth Harris</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Seema NandaSelf-employedDepartment of Labor</t>
+          <t>Seth HarrisSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Seema NandaSelf-employed</t>
+          <t>Seth HarrisSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Raj Nayak</t>
+          <t>Seema Nanda</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Raj NayakSelf-employedDepartment of Labor</t>
+          <t>Seema NandaSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Raj NayakSelf-employed</t>
+          <t>Seema NandaSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lynn Rhinehart</t>
+          <t>Raj Nayak</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lynn RhinehartSelf-employedDepartment of Labor</t>
+          <t>Raj NayakSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lynn RhinehartSelf-employed</t>
+          <t>Raj NayakSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ann Rosenthal</t>
+          <t>Lynn Rhinehart</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1150,24 +1150,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Ann RosenthalSelf-employedDepartment of Labor</t>
+          <t>Lynn RhinehartSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Ann RosenthalSelf-employed</t>
+          <t>Lynn RhinehartSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Department of State</t>
+          <t>Department of Labor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Frances Colon</t>
+          <t>Ann Rosenthal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Frances ColonSelf-employedDepartment of State</t>
+          <t>Ann RosenthalSelf-employedDepartment of Labor</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Frances ColonSelf-employed</t>
+          <t>Ann RosenthalSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Michael Guest</t>
+          <t>Frances Colon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1219,17 +1219,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Michael GuestSelf-employedDepartment of State</t>
+          <t>Frances ColonSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Michael GuestSelf-employed</t>
+          <t>Frances ColonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Peter Harrell</t>
+          <t>Michael Guest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Peter HarrellSelf-employedDepartment of State</t>
+          <t>Michael GuestSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Peter HarrellSelf-employed</t>
+          <t>Michael GuestSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brian McKeon</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Peter Harrell</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1298,17 +1293,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employedDepartment of State</t>
+          <t>Peter HarrellSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Brian McKeonSelf-employed</t>
+          <t>Peter HarrellSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1315,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fouad Saad</t>
+          <t>Brian McKeon</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1340,17 +1335,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employedDepartment of State</t>
+          <t>Brian McKeonSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Fouad SaadSelf-employed</t>
+          <t>Brian McKeonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1357,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gentry Smith</t>
+          <t>Fouad Saad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employedDepartment of State</t>
+          <t>Fouad SaadSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Gentry SmithSelf-employed</t>
+          <t>Fouad SaadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Puneet Talwar</t>
+          <t>Gentry Smith</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1419,24 +1419,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employedDepartment of State</t>
+          <t>Gentry SmithSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Puneet TalwarSelf-employed</t>
+          <t>Gentry SmithSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Department of Veterans Affairs</t>
+          <t>Department of State</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chris Diaz</t>
+          <t>Puneet Talwar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Chris DiazSelf-employedDepartment of Veterans Affairs</t>
+          <t>Puneet TalwarSelf-employedDepartment of State</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Chris DiazSelf-employed</t>
+          <t>Puneet TalwarSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Maryanne Donaghy</t>
+          <t>Chris Diaz</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1488,29 +1488,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
+          <t>Chris DiazSelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Maryanne DonaghySelf-employed</t>
+          <t>Chris DiazSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Environmental Protection Agency</t>
+          <t>Department of Veterans Affairs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael McCabe</t>
+          <t>Maryanne Donaghy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
+          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Michael McCabeSelf-employed</t>
+          <t>Maryanne DonaghySelf-employed</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Luseni Pieh</t>
+          <t>Michael McCabe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1567,24 +1567,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
+          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Luseni PiehSelf-employed</t>
+          <t>Michael McCabeSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Executive Office of the President, Management and Administration</t>
+          <t>Environmental Protection Agency</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Christian Peele</t>
+          <t>Luseni Pieh</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1599,29 +1599,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Transition — PT Fund, Inc.</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
+          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Christian PeeleSelf-employed</t>
+          <t>Luseni PiehSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Federal Communications Commission</t>
+          <t>Executive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mignon Clyburn</t>
+          <t>Christian Peele</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Volunteer</t>
+          <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
+          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Mignon ClyburnSelf-employed</t>
+          <t>Christian PeeleSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paul de Sa</t>
+          <t>Mignon Clyburn</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1678,29 +1678,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employedFederal Communications Commission</t>
+          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Paul de SaSelf-employed</t>
+          <t>Mignon ClyburnSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intelligence Community</t>
+          <t>Federal Communications Commission</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Paul de Sa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1720,12 +1715,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
+          <t>Paul de SaSelf-employedFederal Communications Commission</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
+          <t>Paul de SaSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1732,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Harry Coker</t>
+          <t>Stephanie O’Sullivan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employedIntelligence Community</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Harry CokerSelf-employed</t>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dawn Eilenberger</t>
+          <t>Harry Coker</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
+          <t>Harry CokerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Dawn EilenbergerSelf-employed</t>
+          <t>Harry CokerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Dawn Eilenberger</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employedIntelligence Community</t>
+          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Justin JacksonSelf-employed</t>
+          <t>Dawn EilenbergerSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ron Moultrie</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employedIntelligence Community</t>
+          <t>Justin JacksonSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Ron MoultrieSelf-employed</t>
+          <t>Justin JacksonSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Shaun Murphy</t>
+          <t>Ron Moultrie</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1905,12 +1905,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employedIntelligence Community</t>
+          <t>Ron MoultrieSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Shaun MurphySelf-employed</t>
+          <t>Ron MoultrieSelf-employed</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bruce Pease</t>
+          <t>Shaun Murphy</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1942,24 +1942,24 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employedIntelligence Community</t>
+          <t>Shaun MurphySelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Bruce PeaseSelf-employed</t>
+          <t>Shaun MurphySelf-employed</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>National Aeronautics and Space Administration</t>
+          <t>Intelligence Community</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pam Melroy</t>
+          <t>Bruce Pease</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1979,29 +1979,24 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
+          <t>Bruce PeaseSelf-employedIntelligence Community</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Pam MelroySelf-employed</t>
+          <t>Bruce PeaseSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>National Security Council</t>
+          <t>National Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pav Singh</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Pam Melroy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2021,12 +2016,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Pav SinghSelf-employedNational Security Council</t>
+          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Pav SinghSelf-employed</t>
+          <t>Pam MelroySelf-employed</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2033,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nicole Wong</t>
+          <t>Pav Singh</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2063,27 +2058,27 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Nicole WongSelf-employedNational Security Council</t>
+          <t>Pav SinghSelf-employedNational Security Council</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Nicole WongSelf-employed</t>
+          <t>Pav SinghSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Office of the United States Trade Representative</t>
+          <t>National Security Council</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jason Miller</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>Nicole Wong</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2105,29 +2100,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Jason Miller, Team LeadSelf-employedOffice of the United States Trade Representative</t>
+          <t>Nicole WongSelf-employedNational Security Council</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jason Miller, Team LeadSelf-employed</t>
+          <t>Nicole WongSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Social Security Administration</t>
+          <t>Office of Personnel Management</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carolyn Colvin</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Y</t>
+          <t>Michael Grant</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2147,24 +2137,24 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Carolyn Colvin, Team LeadSelf-employedSocial Security Administration</t>
+          <t>Michael GrantSelf-employedOffice of Personnel Management</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Carolyn Colvin, Team LeadSelf-employed</t>
+          <t>Michael GrantSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Office of the United States Trade Representative</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Richard Stengel</t>
+          <t>Jason Miller</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2189,24 +2179,29 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Richard Stengel, Team LeadSelf-employedUnited States Agency for Global Media</t>
+          <t>Jason Miller, Team LeadSelf-employedOffice of the United States Trade Representative</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Richard Stengel, Team LeadSelf-employed</t>
+          <t>Jason Miller, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>United States Agency for Global Media</t>
+          <t>Social Security Administration</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bruce Sherman</t>
+          <t>Carolyn Colvin</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2226,12 +2221,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Bruce ShermanSelf-employedUnited States Agency for Global Media</t>
+          <t>Carolyn Colvin, Team LeadSelf-employedSocial Security Administration</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Bruce ShermanSelf-employed</t>
+          <t>Carolyn Colvin, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2238,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dana Shell Smith</t>
+          <t>Richard Stengel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2263,24 +2263,24 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Dana Shell SmithSelf-employedUnited States Agency for Global Media</t>
+          <t>Richard Stengel, Team LeadSelf-employedUnited States Agency for Global Media</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Dana Shell SmithSelf-employed</t>
+          <t>Richard Stengel, Team LeadSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture</t>
+          <t>United States Agency for Global Media</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Audrey Rowe</t>
+          <t>Bruce Sherman</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2300,47 +2300,121 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Audrey RoweSelf-employedUnited States Department of Agriculture</t>
+          <t>Bruce ShermanSelf-employedUnited States Agency for Global Media</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Audrey RoweSelf-employed</t>
+          <t>Bruce ShermanSelf-employed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>United States Agency for Global Media</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dana Shell Smith</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Dana Shell SmithSelf-employedUnited States Agency for Global Media</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Dana Shell SmithSelf-employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>United States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Audrey Rowe</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audrey RoweSelf-employedUnited States Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Audrey RoweSelf-employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>United States Mission to the United Nations</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Jen Simon</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Self-employed</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>SELF-EMPLOYED</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SELF-EMPLOYED</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Jen SimonSelf-employedUnited States Mission to the United Nations</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Jen SimonSelf-employed</t>
         </is>
